--- a/output/5Y_P32_KFSDIV.xlsx
+++ b/output/5Y_P32_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4103</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.3976</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9013</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3527</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8804</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6268</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3636</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8711</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1252</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1934</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1176</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3311</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3637</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6447</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.486</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.1958</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.4264</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17.107</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.8894</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4004</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3877</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6367</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0061</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.835</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.4216</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.2404</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.382</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>11.9583</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2036</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9136</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.4338</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9657</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3568</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2487</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3991</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.5985</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.6955</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3398</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.8469</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.129</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.716</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.4613</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.6545</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2345</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.1636</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.8145</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.2352</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.8241</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2543</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.5675</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9.967000000000001</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.0064</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0129</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.4583</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3341</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.884600000000001</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967499999999999</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4908</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.6308</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3176</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.2392</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4103</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.3976</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9013</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3527</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8804</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6268</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3636</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8711</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1252</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1934</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1176</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3311</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3637</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6447</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.486</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.1958</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.4264</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17.107</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.8894</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4004</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3877</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6367</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0061</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.835</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.4216</v>
@@ -5674,10 +5677,10 @@
         <v>278014.7556</v>
       </c>
       <c r="K26" s="1">
-        <v>249666.1783</v>
+        <v>249684.866</v>
       </c>
       <c r="L26" s="1">
-        <v>14.3634</v>
+        <v>14.3645</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.2404</v>
@@ -5727,10 +5730,10 @@
         <v>267537.5031</v>
       </c>
       <c r="K27" s="1">
-        <v>249488.2428</v>
+        <v>249507.6409</v>
       </c>
       <c r="L27" s="1">
-        <v>14.3633</v>
+        <v>14.3645</v>
       </c>
       <c r="M27" s="1">
         <v>0.4</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.382</v>
@@ -5780,10 +5783,10 @@
         <v>266811.7442</v>
       </c>
       <c r="K28" s="1">
-        <v>280087.7373</v>
+        <v>280107.1355</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2348</v>
+        <v>14.2358</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>11.9583</v>
@@ -5833,10 +5836,10 @@
         <v>267465.9305</v>
       </c>
       <c r="K29" s="1">
-        <v>307052.1794</v>
+        <v>307071.5775</v>
       </c>
       <c r="L29" s="1">
-        <v>14.053</v>
+        <v>14.0539</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2036</v>
@@ -5886,10 +5889,10 @@
         <v>283089.2038</v>
       </c>
       <c r="K30" s="1">
-        <v>323756.1249</v>
+        <v>323775.5231</v>
       </c>
       <c r="L30" s="1">
-        <v>13.9288</v>
+        <v>13.9296</v>
       </c>
       <c r="M30" s="1">
         <v>0.4</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9136</v>
@@ -5939,10 +5942,10 @@
         <v>318301.7116</v>
       </c>
       <c r="K31" s="1">
-        <v>330694.6683</v>
+        <v>330714.0665</v>
       </c>
       <c r="L31" s="1">
-        <v>13.8883</v>
+        <v>13.8891</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.4338</v>
@@ -5992,10 +5995,10 @@
         <v>340385.2325</v>
       </c>
       <c r="K32" s="1">
-        <v>323794.562</v>
+        <v>323841.5297</v>
       </c>
       <c r="L32" s="1">
-        <v>13.91</v>
+        <v>13.912</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9657</v>
@@ -6045,10 +6048,10 @@
         <v>339584.7491</v>
       </c>
       <c r="K33" s="1">
-        <v>321702.6803</v>
+        <v>321758.0088</v>
       </c>
       <c r="L33" s="1">
-        <v>13.913</v>
+        <v>13.9154</v>
       </c>
       <c r="M33" s="1">
         <v>0.3</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3568</v>
@@ -6098,10 +6101,10 @@
         <v>365396.456</v>
       </c>
       <c r="K34" s="1">
-        <v>342586.5919</v>
+        <v>342641.9204</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8531</v>
+        <v>13.8554</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2487</v>
@@ -6151,10 +6154,10 @@
         <v>372723.8869</v>
       </c>
       <c r="K35" s="1">
-        <v>342935.9071</v>
+        <v>342991.2356</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8526</v>
+        <v>13.8549</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3991</v>
@@ -6204,10 +6207,10 @@
         <v>386532.8164</v>
       </c>
       <c r="K36" s="1">
-        <v>355657.8711</v>
+        <v>355713.1996</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8311</v>
+        <v>13.8333</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.5985</v>
@@ -6257,10 +6260,10 @@
         <v>410973.8909</v>
       </c>
       <c r="K37" s="1">
-        <v>361822.7623</v>
+        <v>361878.0908</v>
       </c>
       <c r="L37" s="1">
-        <v>13.824</v>
+        <v>13.8261</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.6955</v>
@@ -6310,10 +6313,10 @@
         <v>423522.4562</v>
       </c>
       <c r="K38" s="1">
-        <v>366633.4407</v>
+        <v>366688.7692</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8214</v>
+        <v>13.8235</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3398</v>
@@ -6363,10 +6366,10 @@
         <v>423882.6901</v>
       </c>
       <c r="K39" s="1">
-        <v>374095.4673</v>
+        <v>374150.7958</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8194</v>
+        <v>13.8214</v>
       </c>
       <c r="M39" s="1">
         <v>0.3</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.8469</v>
@@ -6416,10 +6419,10 @@
         <v>427072.566</v>
       </c>
       <c r="K40" s="1">
-        <v>393784.0923</v>
+        <v>393839.4208</v>
       </c>
       <c r="L40" s="1">
-        <v>13.796</v>
+        <v>13.798</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.129</v>
@@ -6469,10 +6472,10 @@
         <v>445538.9592</v>
       </c>
       <c r="K41" s="1">
-        <v>417920.9265</v>
+        <v>417976.255</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7391</v>
+        <v>13.7409</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.716</v>
@@ -6522,10 +6525,10 @@
         <v>442952.5764</v>
       </c>
       <c r="K42" s="1">
-        <v>419363.9251</v>
+        <v>419419.2537</v>
       </c>
       <c r="L42" s="1">
-        <v>13.737</v>
+        <v>13.7388</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.4613</v>
@@ -6575,10 +6578,10 @@
         <v>452892.0498</v>
       </c>
       <c r="K43" s="1">
-        <v>442035.1056</v>
+        <v>442090.4341</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6822</v>
+        <v>13.6839</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.6545</v>
@@ -6628,10 +6631,10 @@
         <v>469330.1826</v>
       </c>
       <c r="K44" s="1">
-        <v>460320.7171</v>
+        <v>460376.0456</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6303</v>
+        <v>13.632</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2345</v>
@@ -6681,10 +6684,10 @@
         <v>465043.222</v>
       </c>
       <c r="K45" s="1">
-        <v>463823.5138</v>
+        <v>463878.8424</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6226</v>
+        <v>13.6242</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.1636</v>
@@ -6734,10 +6737,10 @@
         <v>481591.0458</v>
       </c>
       <c r="K46" s="1">
-        <v>488193.8785</v>
+        <v>488249.207</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5474</v>
+        <v>13.5489</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.8145</v>
@@ -6787,10 +6790,10 @@
         <v>478625.6297</v>
       </c>
       <c r="K47" s="1">
-        <v>500791.9648</v>
+        <v>500847.2933</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5095</v>
+        <v>13.511</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.2352</v>
@@ -6840,10 +6843,10 @@
         <v>465976.3083</v>
       </c>
       <c r="K48" s="1">
-        <v>523798.9677</v>
+        <v>523854.2962</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4262</v>
+        <v>13.4276</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.8241</v>
@@ -6893,10 +6896,10 @@
         <v>469180.748</v>
       </c>
       <c r="K49" s="1">
-        <v>556487.0264</v>
+        <v>556542.355</v>
       </c>
       <c r="L49" s="1">
-        <v>13.276</v>
+        <v>13.2773</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2543</v>
@@ -6946,10 +6949,10 @@
         <v>498118.6331</v>
       </c>
       <c r="K50" s="1">
-        <v>582866.219</v>
+        <v>582921.5476</v>
       </c>
       <c r="L50" s="1">
-        <v>13.1427</v>
+        <v>13.144</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.5675</v>
@@ -6999,10 +7002,10 @@
         <v>478217.2816</v>
       </c>
       <c r="K51" s="1">
-        <v>574714.9864000001</v>
+        <v>574802.9144</v>
       </c>
       <c r="L51" s="1">
-        <v>13.1736</v>
+        <v>13.1757</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9.967000000000001</v>
@@ -7052,10 +7055,10 @@
         <v>472147.4066</v>
       </c>
       <c r="K52" s="1">
-        <v>602833.6196</v>
+        <v>602921.5476</v>
       </c>
       <c r="L52" s="1">
-        <v>13.0253</v>
+        <v>13.0272</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.0064</v>
@@ -7105,10 +7108,10 @@
         <v>483964.9676</v>
       </c>
       <c r="K53" s="1">
-        <v>624612.6755</v>
+        <v>624700.6035</v>
       </c>
       <c r="L53" s="1">
-        <v>12.8886</v>
+        <v>12.8904</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0129</v>
@@ -7158,10 +7161,10 @@
         <v>494246.4621</v>
       </c>
       <c r="K54" s="1">
-        <v>634612.6755</v>
+        <v>634700.6035</v>
       </c>
       <c r="L54" s="1">
-        <v>12.8309</v>
+        <v>12.8327</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.4583</v>
@@ -7211,10 +7214,10 @@
         <v>539988.5323</v>
       </c>
       <c r="K55" s="1">
-        <v>644612.6755</v>
+        <v>644700.6035</v>
       </c>
       <c r="L55" s="1">
-        <v>12.7756</v>
+        <v>12.7774</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3341</v>
@@ -7264,10 +7267,10 @@
         <v>543519.4865</v>
       </c>
       <c r="K56" s="1">
-        <v>658031.9341</v>
+        <v>658119.862</v>
       </c>
       <c r="L56" s="1">
-        <v>12.7188</v>
+        <v>12.7205</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.884600000000001</v>
@@ -7317,10 +7320,10 @@
         <v>529530.3465</v>
       </c>
       <c r="K57" s="1">
-        <v>674513.2195</v>
+        <v>674601.1474</v>
       </c>
       <c r="L57" s="1">
-        <v>12.6482</v>
+        <v>12.6499</v>
       </c>
       <c r="M57" s="1">
         <v>0.5</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967499999999999</v>
@@ -7370,10 +7373,10 @@
         <v>568002.5472</v>
       </c>
       <c r="K58" s="1">
-        <v>687966.8114</v>
+        <v>688054.7394</v>
       </c>
       <c r="L58" s="1">
-        <v>12.5801</v>
+        <v>12.5817</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4908</v>
@@ -7423,10 +7426,10 @@
         <v>607820.4717</v>
       </c>
       <c r="K59" s="1">
-        <v>714066.4375999999</v>
+        <v>714154.3656</v>
       </c>
       <c r="L59" s="1">
-        <v>12.4618</v>
+        <v>12.4634</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.6308</v>
@@ -7476,10 +7479,10 @@
         <v>625559.4925000001</v>
       </c>
       <c r="K60" s="1">
-        <v>694064.3267</v>
+        <v>694232.1733</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5288</v>
+        <v>12.5318</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3176</v>
@@ -7529,10 +7532,10 @@
         <v>618172.121</v>
       </c>
       <c r="K61" s="1">
-        <v>696334.3844</v>
+        <v>696502.231</v>
       </c>
       <c r="L61" s="1">
-        <v>12.5216</v>
+        <v>12.5246</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.2392</v>
@@ -7582,10 +7585,10 @@
         <v>623499.8161000001</v>
       </c>
       <c r="K62" s="1">
-        <v>723822.4884</v>
+        <v>723990.335</v>
       </c>
       <c r="L62" s="1">
-        <v>12.422</v>
+        <v>12.4249</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4103</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.3976</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9013</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3527</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8804</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6268</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3636</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8711</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1252</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1934</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1176</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3311</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3637</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6447</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.486</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.1958</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.4264</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17.107</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.8894</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4004</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3877</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6367</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0061</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.835</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.4216</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.2404</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.382</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>11.9583</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2036</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9136</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.4338</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9657</v>
@@ -9357,10 +9360,10 @@
         <v>337929.4149</v>
       </c>
       <c r="K33" s="1">
-        <v>348697.1316</v>
+        <v>348702.701</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9795</v>
+        <v>13.9797</v>
       </c>
       <c r="M33" s="1">
         <v>0.3</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3568</v>
@@ -9410,10 +9413,10 @@
         <v>365009.5104</v>
       </c>
       <c r="K34" s="1">
-        <v>372113.8283</v>
+        <v>372119.3977</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9129</v>
+        <v>13.9132</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2487</v>
@@ -9463,10 +9466,10 @@
         <v>372107.9932</v>
       </c>
       <c r="K35" s="1">
-        <v>373410.529</v>
+        <v>373416.0984</v>
       </c>
       <c r="L35" s="1">
-        <v>13.911</v>
+        <v>13.9112</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3991</v>
@@ -9516,10 +9519,10 @@
         <v>386244.9369</v>
       </c>
       <c r="K36" s="1">
-        <v>388154.8113</v>
+        <v>388160.3807</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8858</v>
+        <v>13.886</v>
       </c>
       <c r="M36" s="1">
         <v>0.4</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.5985</v>
@@ -9569,10 +9572,10 @@
         <v>411954.1047</v>
       </c>
       <c r="K37" s="1">
-        <v>395837.7035</v>
+        <v>395843.2729</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8765</v>
+        <v>13.8767</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.6955</v>
@@ -9622,10 +9625,10 @@
         <v>424734.8554</v>
       </c>
       <c r="K38" s="1">
-        <v>402093.34</v>
+        <v>402098.9093</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8726</v>
+        <v>13.8728</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3398</v>
@@ -9675,10 +9678,10 @@
         <v>424170.5915</v>
       </c>
       <c r="K39" s="1">
-        <v>411291.1491</v>
+        <v>411296.7184</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8692</v>
+        <v>13.8694</v>
       </c>
       <c r="M39" s="1">
         <v>0.3</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.8469</v>
@@ -9728,10 +9731,10 @@
         <v>426666.3301</v>
       </c>
       <c r="K40" s="1">
-        <v>433935.7892</v>
+        <v>433941.3585</v>
       </c>
       <c r="L40" s="1">
-        <v>13.842</v>
+        <v>13.8422</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.129</v>
@@ -9781,10 +9784,10 @@
         <v>445984.7898</v>
       </c>
       <c r="K41" s="1">
-        <v>461553.49</v>
+        <v>461559.0593</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7799</v>
+        <v>13.7801</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.716</v>
@@ -9834,10 +9837,10 @@
         <v>442085.2422</v>
       </c>
       <c r="K42" s="1">
-        <v>464282.873</v>
+        <v>464288.4423</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7761</v>
+        <v>13.7762</v>
       </c>
       <c r="M42" s="1">
         <v>0.3</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.4613</v>
@@ -9887,10 +9890,10 @@
         <v>452033.8177</v>
       </c>
       <c r="K43" s="1">
-        <v>488668.2766</v>
+        <v>488673.846</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7205</v>
+        <v>13.7206</v>
       </c>
       <c r="M43" s="1">
         <v>0</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.6545</v>
@@ -9940,10 +9943,10 @@
         <v>469119.1595</v>
       </c>
       <c r="K44" s="1">
-        <v>507767.8429</v>
+        <v>507773.4123</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6697</v>
+        <v>13.6698</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2345</v>
@@ -9993,10 +9996,10 @@
         <v>463202.5686</v>
       </c>
       <c r="K45" s="1">
-        <v>517081.6487</v>
+        <v>517087.218</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6505</v>
+        <v>13.6506</v>
       </c>
       <c r="M45" s="1">
         <v>0.3</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.1636</v>
@@ -10046,10 +10049,10 @@
         <v>480647.7356</v>
       </c>
       <c r="K46" s="1">
-        <v>527767.8429</v>
+        <v>527773.4123</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6192</v>
+        <v>13.6193</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.8145</v>
@@ -10099,10 +10102,10 @@
         <v>476487.5565</v>
       </c>
       <c r="K47" s="1">
-        <v>547995.4777</v>
+        <v>548001.0471</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5604</v>
+        <v>13.5605</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.2352</v>
@@ -10152,10 +10155,10 @@
         <v>462593.2726</v>
       </c>
       <c r="K48" s="1">
-        <v>557995.4777</v>
+        <v>558001.0471</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5251</v>
+        <v>13.5253</v>
       </c>
       <c r="M48" s="1">
         <v>0.3</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.8241</v>
@@ -10205,10 +10208,10 @@
         <v>466400.5949</v>
       </c>
       <c r="K49" s="1">
-        <v>567995.4777</v>
+        <v>568001.0471</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4773</v>
+        <v>13.4775</v>
       </c>
       <c r="M49" s="1">
         <v>0</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2543</v>
@@ -10258,10 +10261,10 @@
         <v>495249.7695</v>
       </c>
       <c r="K50" s="1">
-        <v>589134.6488</v>
+        <v>589140.2182</v>
       </c>
       <c r="L50" s="1">
-        <v>13.361</v>
+        <v>13.3611</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.5675</v>
@@ -10311,10 +10314,10 @@
         <v>474380.276</v>
       </c>
       <c r="K51" s="1">
-        <v>599134.6488</v>
+        <v>599140.2182</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3199</v>
+        <v>13.3201</v>
       </c>
       <c r="M51" s="1">
         <v>0.3</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9.967000000000001</v>
@@ -10364,10 +10367,10 @@
         <v>468962.333</v>
       </c>
       <c r="K52" s="1">
-        <v>609134.6488</v>
+        <v>609140.2182</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2638</v>
+        <v>13.2639</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.0064</v>
@@ -10417,10 +10420,10 @@
         <v>480765.8436</v>
       </c>
       <c r="K53" s="1">
-        <v>631279.3308999999</v>
+        <v>631284.9002</v>
       </c>
       <c r="L53" s="1">
-        <v>13.1128</v>
+        <v>13.113</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0129</v>
@@ -10470,10 +10473,10 @@
         <v>491045.2558</v>
       </c>
       <c r="K54" s="1">
-        <v>641279.3308999999</v>
+        <v>641284.9002</v>
       </c>
       <c r="L54" s="1">
-        <v>13.0502</v>
+        <v>13.0503</v>
       </c>
       <c r="M54" s="1">
         <v>0.3</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.4583</v>
@@ -10523,10 +10526,10 @@
         <v>536558.4374000001</v>
       </c>
       <c r="K55" s="1">
-        <v>651279.3308999999</v>
+        <v>651284.9002</v>
       </c>
       <c r="L55" s="1">
-        <v>12.9902</v>
+        <v>12.9903</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3341</v>
@@ -10576,10 +10579,10 @@
         <v>539973.2029</v>
       </c>
       <c r="K56" s="1">
-        <v>674546.9728</v>
+        <v>674552.5421</v>
       </c>
       <c r="L56" s="1">
-        <v>12.8837</v>
+        <v>12.8838</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.884600000000001</v>
@@ -10629,10 +10632,10 @@
         <v>526012.8806</v>
       </c>
       <c r="K57" s="1">
-        <v>684546.9728</v>
+        <v>684552.5421</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8379</v>
+        <v>12.838</v>
       </c>
       <c r="M57" s="1">
         <v>0.5</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967499999999999</v>
@@ -10682,10 +10685,10 @@
         <v>564466.568</v>
       </c>
       <c r="K58" s="1">
-        <v>694546.9728</v>
+        <v>694552.5421</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7834</v>
+        <v>12.7835</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4908</v>
@@ -10735,10 +10738,10 @@
         <v>604480.294</v>
       </c>
       <c r="K59" s="1">
-        <v>728541.9647</v>
+        <v>728547.5341</v>
       </c>
       <c r="L59" s="1">
-        <v>12.6186</v>
+        <v>12.6187</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.6308</v>
@@ -10788,10 +10791,10 @@
         <v>622638.9019000001</v>
       </c>
       <c r="K60" s="1">
-        <v>738541.9647</v>
+        <v>738547.5341</v>
       </c>
       <c r="L60" s="1">
-        <v>12.5844</v>
+        <v>12.5845</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3176</v>
@@ -10841,10 +10844,10 @@
         <v>613965.8772</v>
       </c>
       <c r="K61" s="1">
-        <v>748541.9647</v>
+        <v>748547.5341</v>
       </c>
       <c r="L61" s="1">
-        <v>12.554</v>
+        <v>12.5541</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.2392</v>
@@ -10894,10 +10897,10 @@
         <v>619181.4982</v>
       </c>
       <c r="K62" s="1">
-        <v>758541.9647</v>
+        <v>758547.5341</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5186</v>
+        <v>12.5187</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4103</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.3976</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9013</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3527</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8804</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6268</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3636</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8711</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1252</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1934</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1176</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3311</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3637</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6447</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.486</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.1958</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.4264</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17.107</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.8894</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4004</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3877</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6367</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0061</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.835</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.4216</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.2404</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.382</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>11.9583</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2036</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9136</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.4338</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9657</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3568</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2487</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3991</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.5985</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.6955</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3398</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.8469</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.129</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.716</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.4613</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.6545</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2345</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.1636</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.8145</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.2352</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.8241</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2543</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.5675</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9.967000000000001</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.0064</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0129</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.4583</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3341</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.884600000000001</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967499999999999</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4908</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.6308</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3176</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.2392</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>12.4103</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.3976</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.9013</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.3527</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8804</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.6268</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>15.3636</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.8711</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.1252</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.1934</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1176</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-7</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>15.3311</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>15.3637</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.6447</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.486</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>16.1958</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16.4264</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>17.107</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.8894</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.4004</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3877</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6367</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.0061</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.835</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.4216</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.2404</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>12.382</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>11.9583</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.2036</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.9136</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.4338</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9657</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.3568</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.2487</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3991</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.5985</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.6955</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.3398</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.8469</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.129</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>12.716</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.4613</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.6545</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>12.2345</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.1636</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>11.8145</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.2352</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.8241</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>11.2543</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.5675</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>9.967000000000001</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.0064</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.0129</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.4583</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3341</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>9.884600000000001</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>9.967499999999999</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4908</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.6308</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.3176</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.2392</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -17597,10 +17600,10 @@
         <v>12.4087</v>
       </c>
       <c r="D3" s="1">
-        <v>12.422</v>
+        <v>12.4249</v>
       </c>
       <c r="E3" s="1">
-        <v>12.5186</v>
+        <v>12.5187</v>
       </c>
       <c r="F3" s="1">
         <v>12.5929</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>163009.0801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8235</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8612</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8163</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8115</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8092</v>
       </c>
     </row>
   </sheetData>
